--- a/bot/data.xlsx
+++ b/bot/data.xlsx
@@ -471,23 +471,23 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>17-01-2024 00:00:00</t>
+          <t>18-01-2024 00:00:00</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3911748</v>
+        <v>2081619</v>
       </c>
       <c r="D2" t="n">
-        <v>578.05</v>
+        <v>575.8</v>
       </c>
       <c r="E2" t="n">
-        <v>574.75</v>
+        <v>573.95</v>
       </c>
       <c r="F2" t="n">
-        <v>580.75</v>
+        <v>578.15</v>
       </c>
       <c r="G2" t="n">
-        <v>569.8</v>
+        <v>571.85</v>
       </c>
     </row>
     <row r="3">
@@ -496,23 +496,23 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>18-01-2024 00:00:00</t>
+          <t>19-01-2024 00:00:00</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2081619</v>
+        <v>2645181</v>
       </c>
       <c r="D3" t="n">
-        <v>575.8</v>
+        <v>573.95</v>
       </c>
       <c r="E3" t="n">
-        <v>573.95</v>
+        <v>574.95</v>
       </c>
       <c r="F3" t="n">
-        <v>578.15</v>
+        <v>577.6</v>
       </c>
       <c r="G3" t="n">
-        <v>571.85</v>
+        <v>570.6</v>
       </c>
     </row>
     <row r="4">
@@ -521,23 +521,23 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>19-01-2024 00:00:00</t>
+          <t>22-01-2024 00:00:00</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2645181</v>
+        <v>1873302</v>
       </c>
       <c r="D4" t="n">
-        <v>573.95</v>
+        <v>575.2</v>
       </c>
       <c r="E4" t="n">
-        <v>574.95</v>
+        <v>577.95</v>
       </c>
       <c r="F4" t="n">
-        <v>577.6</v>
+        <v>579.7</v>
       </c>
       <c r="G4" t="n">
-        <v>570.6</v>
+        <v>575.2</v>
       </c>
     </row>
     <row r="5">
@@ -546,23 +546,23 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>22-01-2024 00:00:00</t>
+          <t>23-01-2024 00:00:00</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1873302</v>
+        <v>1421415</v>
       </c>
       <c r="D5" t="n">
-        <v>575.2</v>
+        <v>578.95</v>
       </c>
       <c r="E5" t="n">
-        <v>577.95</v>
+        <v>579.9</v>
       </c>
       <c r="F5" t="n">
-        <v>579.7</v>
+        <v>580.5</v>
       </c>
       <c r="G5" t="n">
-        <v>575.2</v>
+        <v>576.5</v>
       </c>
     </row>
     <row r="6">
@@ -571,23 +571,23 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>23-01-2024 00:00:00</t>
+          <t>24-01-2024 00:00:00</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1421415</v>
+        <v>1844368</v>
       </c>
       <c r="D6" t="n">
-        <v>578.95</v>
+        <v>580.35</v>
       </c>
       <c r="E6" t="n">
-        <v>579.9</v>
+        <v>575.75</v>
       </c>
       <c r="F6" t="n">
-        <v>580.5</v>
+        <v>582.15</v>
       </c>
       <c r="G6" t="n">
-        <v>576.5</v>
+        <v>572.1</v>
       </c>
     </row>
     <row r="7">
@@ -596,23 +596,23 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>24-01-2024 00:00:00</t>
+          <t>25-01-2024 00:00:00</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1844368</v>
+        <v>1874962</v>
       </c>
       <c r="D7" t="n">
-        <v>580.35</v>
+        <v>573.85</v>
       </c>
       <c r="E7" t="n">
-        <v>575.75</v>
+        <v>574.65</v>
       </c>
       <c r="F7" t="n">
-        <v>582.15</v>
+        <v>576</v>
       </c>
       <c r="G7" t="n">
-        <v>572.1</v>
+        <v>572.6</v>
       </c>
     </row>
     <row r="8">
@@ -621,23 +621,23 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>25-01-2024 00:00:00</t>
+          <t>26-01-2024 00:00:00</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1874962</v>
+        <v>1547572</v>
       </c>
       <c r="D8" t="n">
-        <v>573.85</v>
+        <v>577</v>
       </c>
       <c r="E8" t="n">
-        <v>574.65</v>
+        <v>573.9</v>
       </c>
       <c r="F8" t="n">
-        <v>576</v>
+        <v>577.65</v>
       </c>
       <c r="G8" t="n">
-        <v>572.6</v>
+        <v>572.35</v>
       </c>
     </row>
     <row r="9">
@@ -646,23 +646,23 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>26-01-2024 00:00:00</t>
+          <t>29-01-2024 00:00:00</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1547572</v>
+        <v>3555435</v>
       </c>
       <c r="D9" t="n">
-        <v>577</v>
+        <v>574.5</v>
       </c>
       <c r="E9" t="n">
-        <v>573.9</v>
+        <v>575.75</v>
       </c>
       <c r="F9" t="n">
-        <v>577.65</v>
+        <v>580.45</v>
       </c>
       <c r="G9" t="n">
-        <v>572.35</v>
+        <v>573</v>
       </c>
     </row>
     <row r="10">
@@ -671,23 +671,23 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>29-01-2024 00:00:00</t>
+          <t>30-01-2024 00:00:00</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3555435</v>
+        <v>2241184</v>
       </c>
       <c r="D10" t="n">
-        <v>574.5</v>
+        <v>576.35</v>
       </c>
       <c r="E10" t="n">
-        <v>575.75</v>
+        <v>573.95</v>
       </c>
       <c r="F10" t="n">
-        <v>580.45</v>
+        <v>578.45</v>
       </c>
       <c r="G10" t="n">
-        <v>573</v>
+        <v>572.6</v>
       </c>
     </row>
     <row r="11">
@@ -696,23 +696,23 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>30-01-2024 00:00:00</t>
+          <t>31-01-2024 00:00:00</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2241184</v>
+        <v>3281866</v>
       </c>
       <c r="D11" t="n">
-        <v>576.35</v>
+        <v>574.3</v>
       </c>
       <c r="E11" t="n">
-        <v>573.95</v>
+        <v>575</v>
       </c>
       <c r="F11" t="n">
-        <v>578.45</v>
+        <v>576.5</v>
       </c>
       <c r="G11" t="n">
-        <v>572.6</v>
+        <v>572</v>
       </c>
     </row>
     <row r="12">
@@ -721,23 +721,23 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>31-01-2024 00:00:00</t>
+          <t>01-02-2024 00:00:00</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3281866</v>
+        <v>4626022</v>
       </c>
       <c r="D12" t="n">
-        <v>574.3</v>
+        <v>575.5</v>
       </c>
       <c r="E12" t="n">
-        <v>575</v>
+        <v>576.5</v>
       </c>
       <c r="F12" t="n">
-        <v>576.5</v>
+        <v>582</v>
       </c>
       <c r="G12" t="n">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="13">
@@ -746,23 +746,23 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>01-02-2024 00:00:00</t>
+          <t>02-02-2024 00:00:00</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4626022</v>
+        <v>5216251</v>
       </c>
       <c r="D13" t="n">
-        <v>575.5</v>
+        <v>577</v>
       </c>
       <c r="E13" t="n">
-        <v>576.5</v>
+        <v>583.95</v>
       </c>
       <c r="F13" t="n">
-        <v>582</v>
+        <v>584.95</v>
       </c>
       <c r="G13" t="n">
-        <v>574</v>
+        <v>574.5</v>
       </c>
     </row>
     <row r="14">
@@ -771,23 +771,23 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>02-02-2024 00:00:00</t>
+          <t>05-02-2024 00:00:00</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5216251</v>
+        <v>5224734</v>
       </c>
       <c r="D14" t="n">
-        <v>577</v>
+        <v>584.05</v>
       </c>
       <c r="E14" t="n">
-        <v>583.95</v>
+        <v>592</v>
       </c>
       <c r="F14" t="n">
-        <v>584.95</v>
+        <v>592.95</v>
       </c>
       <c r="G14" t="n">
-        <v>574.5</v>
+        <v>584.05</v>
       </c>
     </row>
     <row r="15">
@@ -796,23 +796,23 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>05-02-2024 00:00:00</t>
+          <t>06-02-2024 00:00:00</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5224734</v>
+        <v>2085502</v>
       </c>
       <c r="D15" t="n">
-        <v>584.05</v>
+        <v>593</v>
       </c>
       <c r="E15" t="n">
-        <v>592</v>
+        <v>593.55</v>
       </c>
       <c r="F15" t="n">
-        <v>592.95</v>
+        <v>593.75</v>
       </c>
       <c r="G15" t="n">
-        <v>584.05</v>
+        <v>590.5</v>
       </c>
     </row>
     <row r="16">
@@ -821,23 +821,23 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>06-02-2024 00:00:00</t>
+          <t>07-02-2024 00:00:00</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2085502</v>
+        <v>4035754</v>
       </c>
       <c r="D16" t="n">
-        <v>593</v>
+        <v>593.7</v>
       </c>
       <c r="E16" t="n">
-        <v>593.55</v>
+        <v>589.7</v>
       </c>
       <c r="F16" t="n">
-        <v>593.75</v>
+        <v>595.7</v>
       </c>
       <c r="G16" t="n">
-        <v>590.5</v>
+        <v>588.8</v>
       </c>
     </row>
     <row r="17">
@@ -846,23 +846,23 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>07-02-2024 00:00:00</t>
+          <t>08-02-2024 00:00:00</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4035754</v>
+        <v>3315152</v>
       </c>
       <c r="D17" t="n">
-        <v>593.7</v>
+        <v>586.05</v>
       </c>
       <c r="E17" t="n">
-        <v>589.7</v>
+        <v>587.75</v>
       </c>
       <c r="F17" t="n">
-        <v>595.7</v>
+        <v>591.4</v>
       </c>
       <c r="G17" t="n">
-        <v>588.8</v>
+        <v>580</v>
       </c>
     </row>
     <row r="18">
@@ -871,23 +871,23 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>08-02-2024 00:00:00</t>
+          <t>09-02-2024 00:00:00</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3315152</v>
+        <v>2551037</v>
       </c>
       <c r="D18" t="n">
-        <v>586.05</v>
+        <v>587.8</v>
       </c>
       <c r="E18" t="n">
-        <v>587.75</v>
+        <v>589.75</v>
       </c>
       <c r="F18" t="n">
-        <v>591.4</v>
+        <v>592.9</v>
       </c>
       <c r="G18" t="n">
-        <v>580</v>
+        <v>586.6</v>
       </c>
     </row>
     <row r="19">
@@ -896,23 +896,23 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>09-02-2024 00:00:00</t>
+          <t>12-02-2024 00:00:00</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2551037</v>
+        <v>2669101</v>
       </c>
       <c r="D19" t="n">
-        <v>587.8</v>
+        <v>590.1</v>
       </c>
       <c r="E19" t="n">
-        <v>589.75</v>
+        <v>588.95</v>
       </c>
       <c r="F19" t="n">
-        <v>592.9</v>
+        <v>592.35</v>
       </c>
       <c r="G19" t="n">
-        <v>586.6</v>
+        <v>585</v>
       </c>
     </row>
     <row r="20">
@@ -921,23 +921,23 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>12-02-2024 00:00:00</t>
+          <t>13-02-2024 00:00:00</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2669101</v>
+        <v>2388838</v>
       </c>
       <c r="D20" t="n">
-        <v>590.1</v>
+        <v>590</v>
       </c>
       <c r="E20" t="n">
-        <v>588.95</v>
+        <v>592.75</v>
       </c>
       <c r="F20" t="n">
-        <v>592.35</v>
+        <v>593.45</v>
       </c>
       <c r="G20" t="n">
-        <v>585</v>
+        <v>589.55</v>
       </c>
     </row>
     <row r="21">
@@ -946,23 +946,23 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>13-02-2024 00:00:00</t>
+          <t>14-02-2024 00:00:00</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2388838</v>
+        <v>1936190</v>
       </c>
       <c r="D21" t="n">
-        <v>590</v>
+        <v>593.75</v>
       </c>
       <c r="E21" t="n">
-        <v>592.75</v>
+        <v>590.05</v>
       </c>
       <c r="F21" t="n">
-        <v>593.45</v>
+        <v>594.65</v>
       </c>
       <c r="G21" t="n">
-        <v>589.55</v>
+        <v>589.65</v>
       </c>
     </row>
     <row r="22">
@@ -971,23 +971,23 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>14-02-2024 00:00:00</t>
+          <t>15-02-2024 00:00:00</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1936190</v>
+        <v>2645626</v>
       </c>
       <c r="D22" t="n">
-        <v>593.75</v>
+        <v>590</v>
       </c>
       <c r="E22" t="n">
-        <v>590.05</v>
+        <v>589.15</v>
       </c>
       <c r="F22" t="n">
-        <v>594.65</v>
+        <v>591.6</v>
       </c>
       <c r="G22" t="n">
-        <v>589.65</v>
+        <v>587.55</v>
       </c>
     </row>
     <row r="23">
@@ -996,23 +996,23 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>15-02-2024 00:00:00</t>
+          <t>16-02-2024 00:00:00</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2645626</v>
+        <v>4191003</v>
       </c>
       <c r="D23" t="n">
-        <v>590</v>
+        <v>590.05</v>
       </c>
       <c r="E23" t="n">
-        <v>589.15</v>
+        <v>585.5</v>
       </c>
       <c r="F23" t="n">
-        <v>591.6</v>
+        <v>591</v>
       </c>
       <c r="G23" t="n">
-        <v>587.55</v>
+        <v>582.4</v>
       </c>
     </row>
     <row r="24">
@@ -1021,23 +1021,23 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>16-02-2024 00:00:00</t>
+          <t>19-02-2024 00:00:00</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4191003</v>
+        <v>2552097</v>
       </c>
       <c r="D24" t="n">
-        <v>590.05</v>
+        <v>585.6</v>
       </c>
       <c r="E24" t="n">
-        <v>585.5</v>
+        <v>586.25</v>
       </c>
       <c r="F24" t="n">
-        <v>591</v>
+        <v>589.5</v>
       </c>
       <c r="G24" t="n">
-        <v>582.4</v>
+        <v>581.55</v>
       </c>
     </row>
     <row r="25">
@@ -1046,23 +1046,23 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>19-02-2024 00:00:00</t>
+          <t>20-02-2024 00:00:00</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2552097</v>
+        <v>5164767</v>
       </c>
       <c r="D25" t="n">
-        <v>585.6</v>
+        <v>586</v>
       </c>
       <c r="E25" t="n">
-        <v>586.25</v>
+        <v>572.1</v>
       </c>
       <c r="F25" t="n">
-        <v>589.5</v>
+        <v>586.05</v>
       </c>
       <c r="G25" t="n">
-        <v>581.55</v>
+        <v>570.2</v>
       </c>
     </row>
     <row r="26">
@@ -1071,23 +1071,23 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>20-02-2024 00:00:00</t>
+          <t>21-02-2024 00:00:00</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5164767</v>
+        <v>6696796</v>
       </c>
       <c r="D26" t="n">
-        <v>586</v>
+        <v>572.1</v>
       </c>
       <c r="E26" t="n">
-        <v>572.1</v>
+        <v>562.35</v>
       </c>
       <c r="F26" t="n">
-        <v>586.05</v>
+        <v>576.75</v>
       </c>
       <c r="G26" t="n">
-        <v>570.2</v>
+        <v>560.25</v>
       </c>
     </row>
     <row r="27">
@@ -1096,23 +1096,23 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>21-02-2024 00:00:00</t>
+          <t>22-02-2024 00:00:00</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>6696796</v>
+        <v>2744549</v>
       </c>
       <c r="D27" t="n">
-        <v>572.1</v>
+        <v>564.45</v>
       </c>
       <c r="E27" t="n">
         <v>562.35</v>
       </c>
       <c r="F27" t="n">
-        <v>576.75</v>
+        <v>565.75</v>
       </c>
       <c r="G27" t="n">
-        <v>560.25</v>
+        <v>558.5</v>
       </c>
     </row>
     <row r="28">
@@ -1121,23 +1121,23 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>22-02-2024 00:00:00</t>
+          <t>26-02-2024 00:00:00</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2744549</v>
+        <v>3628956</v>
       </c>
       <c r="D28" t="n">
-        <v>564.45</v>
+        <v>566.65</v>
       </c>
       <c r="E28" t="n">
-        <v>562.35</v>
+        <v>575.55</v>
       </c>
       <c r="F28" t="n">
-        <v>565.75</v>
+        <v>577.3</v>
       </c>
       <c r="G28" t="n">
-        <v>558.5</v>
+        <v>566.65</v>
       </c>
     </row>
     <row r="29">
@@ -1146,23 +1146,23 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>26-02-2024 00:00:00</t>
+          <t>27-02-2024 00:00:00</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3628956</v>
+        <v>3489647</v>
       </c>
       <c r="D29" t="n">
-        <v>566.65</v>
+        <v>575.5</v>
       </c>
       <c r="E29" t="n">
+        <v>568.2</v>
+      </c>
+      <c r="F29" t="n">
         <v>575.55</v>
       </c>
-      <c r="F29" t="n">
-        <v>577.3</v>
-      </c>
       <c r="G29" t="n">
-        <v>566.65</v>
+        <v>566.05</v>
       </c>
     </row>
     <row r="30">
@@ -1171,23 +1171,23 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>27-02-2024 00:00:00</t>
+          <t>28-02-2024 00:00:00</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3489647</v>
+        <v>2564098</v>
       </c>
       <c r="D30" t="n">
-        <v>575.5</v>
+        <v>566.95</v>
       </c>
       <c r="E30" t="n">
-        <v>568.2</v>
+        <v>568.5</v>
       </c>
       <c r="F30" t="n">
-        <v>575.55</v>
+        <v>570.35</v>
       </c>
       <c r="G30" t="n">
-        <v>566.05</v>
+        <v>565.25</v>
       </c>
     </row>
     <row r="31">
@@ -1196,23 +1196,23 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>28-02-2024 00:00:00</t>
+          <t>29-02-2024 00:00:00</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2564098</v>
+        <v>3610085</v>
       </c>
       <c r="D31" t="n">
-        <v>566.95</v>
+        <v>568.5</v>
       </c>
       <c r="E31" t="n">
-        <v>568.5</v>
+        <v>578</v>
       </c>
       <c r="F31" t="n">
-        <v>570.35</v>
+        <v>580.5</v>
       </c>
       <c r="G31" t="n">
-        <v>565.25</v>
+        <v>567</v>
       </c>
     </row>
     <row r="32">
@@ -1221,23 +1221,23 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>29-02-2024 00:00:00</t>
+          <t>01-03-2024 00:00:00</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3610085</v>
+        <v>2353852</v>
       </c>
       <c r="D32" t="n">
-        <v>568.5</v>
+        <v>578.05</v>
       </c>
       <c r="E32" t="n">
-        <v>578</v>
+        <v>577.45</v>
       </c>
       <c r="F32" t="n">
-        <v>580.5</v>
+        <v>581.6</v>
       </c>
       <c r="G32" t="n">
-        <v>567</v>
+        <v>573.25</v>
       </c>
     </row>
     <row r="33">
@@ -1246,23 +1246,23 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>01-03-2024 00:00:00</t>
+          <t>04-03-2024 00:00:00</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2353852</v>
+        <v>2060097</v>
       </c>
       <c r="D33" t="n">
-        <v>578.05</v>
+        <v>578.9</v>
       </c>
       <c r="E33" t="n">
-        <v>577.45</v>
+        <v>582.5</v>
       </c>
       <c r="F33" t="n">
-        <v>581.6</v>
+        <v>583.6</v>
       </c>
       <c r="G33" t="n">
-        <v>573.25</v>
+        <v>578.55</v>
       </c>
     </row>
     <row r="34">
@@ -1271,23 +1271,23 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>04-03-2024 00:00:00</t>
+          <t>05-03-2024 00:00:00</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2060097</v>
+        <v>2703486</v>
       </c>
       <c r="D34" t="n">
-        <v>578.9</v>
+        <v>582.6</v>
       </c>
       <c r="E34" t="n">
-        <v>582.5</v>
+        <v>585.55</v>
       </c>
       <c r="F34" t="n">
-        <v>583.6</v>
+        <v>588.8</v>
       </c>
       <c r="G34" t="n">
-        <v>578.55</v>
+        <v>579.5</v>
       </c>
     </row>
     <row r="35">
@@ -1296,23 +1296,23 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>05-03-2024 00:00:00</t>
+          <t>06-03-2024 00:00:00</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2703486</v>
+        <v>1874494</v>
       </c>
       <c r="D35" t="n">
-        <v>582.6</v>
+        <v>585.7</v>
       </c>
       <c r="E35" t="n">
-        <v>585.55</v>
+        <v>585.15</v>
       </c>
       <c r="F35" t="n">
-        <v>588.8</v>
+        <v>589.95</v>
       </c>
       <c r="G35" t="n">
-        <v>579.5</v>
+        <v>584.5</v>
       </c>
     </row>
     <row r="36">
@@ -1321,23 +1321,23 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>06-03-2024 00:00:00</t>
+          <t>07-03-2024 00:00:00</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1874494</v>
+        <v>1431702</v>
       </c>
       <c r="D36" t="n">
-        <v>585.7</v>
+        <v>585</v>
       </c>
       <c r="E36" t="n">
-        <v>585.15</v>
+        <v>589.45</v>
       </c>
       <c r="F36" t="n">
-        <v>589.95</v>
+        <v>589.8</v>
       </c>
       <c r="G36" t="n">
-        <v>584.5</v>
+        <v>583.1</v>
       </c>
     </row>
     <row r="37">
@@ -1346,23 +1346,23 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>07-03-2024 00:00:00</t>
+          <t>11-03-2024 00:00:00</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>1431702</v>
+        <v>1925221</v>
       </c>
       <c r="D37" t="n">
-        <v>585</v>
+        <v>589.6</v>
       </c>
       <c r="E37" t="n">
-        <v>589.45</v>
+        <v>588.35</v>
       </c>
       <c r="F37" t="n">
-        <v>589.8</v>
+        <v>592.5</v>
       </c>
       <c r="G37" t="n">
-        <v>583.1</v>
+        <v>587.05</v>
       </c>
     </row>
     <row r="38">
@@ -1371,23 +1371,23 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>11-03-2024 00:00:00</t>
+          <t>12-03-2024 00:00:00</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1925221</v>
+        <v>1811625</v>
       </c>
       <c r="D38" t="n">
-        <v>589.6</v>
+        <v>588.6</v>
       </c>
       <c r="E38" t="n">
-        <v>588.35</v>
+        <v>588.25</v>
       </c>
       <c r="F38" t="n">
-        <v>592.5</v>
+        <v>589</v>
       </c>
       <c r="G38" t="n">
-        <v>587.05</v>
+        <v>585.05</v>
       </c>
     </row>
     <row r="39">
@@ -1396,23 +1396,23 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>12-03-2024 00:00:00</t>
+          <t>13-03-2024 00:00:00</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1811625</v>
+        <v>2723687</v>
       </c>
       <c r="D39" t="n">
-        <v>588.6</v>
+        <v>586.1</v>
       </c>
       <c r="E39" t="n">
-        <v>588.25</v>
+        <v>581.45</v>
       </c>
       <c r="F39" t="n">
-        <v>589</v>
+        <v>588.35</v>
       </c>
       <c r="G39" t="n">
-        <v>585.05</v>
+        <v>580.7</v>
       </c>
     </row>
     <row r="40">
@@ -1421,23 +1421,23 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>13-03-2024 00:00:00</t>
+          <t>14-03-2024 00:00:00</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2723687</v>
+        <v>2576036</v>
       </c>
       <c r="D40" t="n">
-        <v>586.1</v>
+        <v>581</v>
       </c>
       <c r="E40" t="n">
-        <v>581.45</v>
+        <v>584</v>
       </c>
       <c r="F40" t="n">
-        <v>588.35</v>
+        <v>586</v>
       </c>
       <c r="G40" t="n">
-        <v>580.7</v>
+        <v>577.8</v>
       </c>
     </row>
     <row r="41">
@@ -1446,23 +1446,23 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>14-03-2024 00:00:00</t>
+          <t>15-03-2024 00:00:00</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2576036</v>
+        <v>1768650</v>
       </c>
       <c r="D41" t="n">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="E41" t="n">
-        <v>584</v>
+        <v>584.2</v>
       </c>
       <c r="F41" t="n">
-        <v>586</v>
+        <v>587.15</v>
       </c>
       <c r="G41" t="n">
-        <v>577.8</v>
+        <v>579.6</v>
       </c>
     </row>
     <row r="42">
@@ -1471,23 +1471,23 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>15-03-2024 00:00:00</t>
+          <t>18-03-2024 00:00:00</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>1768650</v>
+        <v>1287820</v>
       </c>
       <c r="D42" t="n">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="E42" t="n">
-        <v>584.2</v>
+        <v>583.1</v>
       </c>
       <c r="F42" t="n">
-        <v>587.15</v>
+        <v>586.45</v>
       </c>
       <c r="G42" t="n">
-        <v>579.6</v>
+        <v>581.55</v>
       </c>
     </row>
     <row r="43">
@@ -1496,23 +1496,23 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>18-03-2024 00:00:00</t>
+          <t>19-03-2024 00:00:00</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>1287820</v>
+        <v>15172575</v>
       </c>
       <c r="D43" t="n">
-        <v>584</v>
+        <v>582.85</v>
       </c>
       <c r="E43" t="n">
-        <v>583.1</v>
+        <v>565.35</v>
       </c>
       <c r="F43" t="n">
-        <v>586.45</v>
+        <v>583.7</v>
       </c>
       <c r="G43" t="n">
-        <v>581.55</v>
+        <v>556.3</v>
       </c>
     </row>
     <row r="44">
@@ -1521,23 +1521,23 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>19-03-2024 00:00:00</t>
+          <t>20-03-2024 00:00:00</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>15172575</v>
+        <v>15832545</v>
       </c>
       <c r="D44" t="n">
-        <v>582.85</v>
+        <v>565.35</v>
       </c>
       <c r="E44" t="n">
-        <v>565.35</v>
+        <v>560.3</v>
       </c>
       <c r="F44" t="n">
-        <v>583.7</v>
+        <v>566.55</v>
       </c>
       <c r="G44" t="n">
-        <v>556.3</v>
+        <v>551.2</v>
       </c>
     </row>
     <row r="45">
@@ -1546,23 +1546,23 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>20-03-2024 00:00:00</t>
+          <t>21-03-2024 00:00:00</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>15832545</v>
+        <v>13589092</v>
       </c>
       <c r="D45" t="n">
-        <v>565.35</v>
+        <v>561.3</v>
       </c>
       <c r="E45" t="n">
-        <v>560.3</v>
+        <v>562.8</v>
       </c>
       <c r="F45" t="n">
-        <v>566.55</v>
+        <v>575</v>
       </c>
       <c r="G45" t="n">
-        <v>551.2</v>
+        <v>557.25</v>
       </c>
     </row>
     <row r="46">
@@ -1571,23 +1571,23 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>21-03-2024 00:00:00</t>
+          <t>22-03-2024 00:00:00</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>13589092</v>
+        <v>10052432</v>
       </c>
       <c r="D46" t="n">
-        <v>561.3</v>
+        <v>562.85</v>
       </c>
       <c r="E46" t="n">
-        <v>562.8</v>
+        <v>554.2</v>
       </c>
       <c r="F46" t="n">
-        <v>575</v>
+        <v>563.95</v>
       </c>
       <c r="G46" t="n">
-        <v>557.25</v>
+        <v>551</v>
       </c>
     </row>
     <row r="47">
@@ -1596,23 +1596,23 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>22-03-2024 00:00:00</t>
+          <t>25-03-2024 00:00:00</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>10052432</v>
+        <v>8585063</v>
       </c>
       <c r="D47" t="n">
-        <v>562.85</v>
+        <v>556.7</v>
       </c>
       <c r="E47" t="n">
-        <v>554.2</v>
+        <v>558.05</v>
       </c>
       <c r="F47" t="n">
-        <v>563.95</v>
+        <v>559.85</v>
       </c>
       <c r="G47" t="n">
-        <v>551</v>
+        <v>548.5</v>
       </c>
     </row>
     <row r="48">
@@ -1621,23 +1621,23 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>25-03-2024 00:00:00</t>
+          <t>26-03-2024 00:00:00</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>8585063</v>
+        <v>4720207</v>
       </c>
       <c r="D48" t="n">
-        <v>556.7</v>
+        <v>559</v>
       </c>
       <c r="E48" t="n">
-        <v>558.05</v>
+        <v>556.1</v>
       </c>
       <c r="F48" t="n">
-        <v>559.85</v>
+        <v>559</v>
       </c>
       <c r="G48" t="n">
-        <v>548.5</v>
+        <v>554.15</v>
       </c>
     </row>
     <row r="49">
@@ -1646,23 +1646,23 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>26-03-2024 00:00:00</t>
+          <t>27-03-2024 00:00:00</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4720207</v>
+        <v>3623708</v>
       </c>
       <c r="D49" t="n">
-        <v>559</v>
+        <v>556.1</v>
       </c>
       <c r="E49" t="n">
-        <v>556.1</v>
+        <v>555.4</v>
       </c>
       <c r="F49" t="n">
-        <v>559</v>
+        <v>557.5</v>
       </c>
       <c r="G49" t="n">
-        <v>554.15</v>
+        <v>551.25</v>
       </c>
     </row>
     <row r="50">
@@ -1671,23 +1671,23 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>27-03-2024 00:00:00</t>
+          <t>28-03-2024 00:00:00</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3623708</v>
+        <v>8154514</v>
       </c>
       <c r="D50" t="n">
-        <v>556.1</v>
+        <v>557</v>
       </c>
       <c r="E50" t="n">
-        <v>555.4</v>
+        <v>565.75</v>
       </c>
       <c r="F50" t="n">
-        <v>557.5</v>
+        <v>565.8</v>
       </c>
       <c r="G50" t="n">
-        <v>551.25</v>
+        <v>555.75</v>
       </c>
     </row>
     <row r="51">
@@ -1696,23 +1696,23 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>28-03-2024 00:00:00</t>
+          <t>29-03-2024 00:00:00</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>8154514</v>
+        <v>5575648</v>
       </c>
       <c r="D51" t="n">
-        <v>557</v>
+        <v>567.6</v>
       </c>
       <c r="E51" t="n">
         <v>565.75</v>
       </c>
       <c r="F51" t="n">
-        <v>565.8</v>
+        <v>569.4</v>
       </c>
       <c r="G51" t="n">
-        <v>555.75</v>
+        <v>563.5</v>
       </c>
     </row>
     <row r="52">
@@ -1721,23 +1721,23 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>29-03-2024 00:00:00</t>
+          <t>01-04-2024 00:00:00</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5575648</v>
+        <v>8194319</v>
       </c>
       <c r="D52" t="n">
-        <v>567.6</v>
+        <v>568</v>
       </c>
       <c r="E52" t="n">
-        <v>565.75</v>
+        <v>568.85</v>
       </c>
       <c r="F52" t="n">
-        <v>569.4</v>
+        <v>573.55</v>
       </c>
       <c r="G52" t="n">
-        <v>563.5</v>
+        <v>566.8</v>
       </c>
     </row>
     <row r="53">
@@ -1746,23 +1746,23 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>01-04-2024 00:00:00</t>
+          <t>02-04-2024 00:00:00</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>8194319</v>
+        <v>4834554</v>
       </c>
       <c r="D53" t="n">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="E53" t="n">
-        <v>568.85</v>
+        <v>572.9</v>
       </c>
       <c r="F53" t="n">
-        <v>573.55</v>
+        <v>574.5</v>
       </c>
       <c r="G53" t="n">
-        <v>566.8</v>
+        <v>567.5</v>
       </c>
     </row>
     <row r="54">
@@ -1771,23 +1771,23 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>02-04-2024 00:00:00</t>
+          <t>03-04-2024 00:00:00</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4834554</v>
+        <v>4829568</v>
       </c>
       <c r="D54" t="n">
-        <v>570</v>
+        <v>573.1</v>
       </c>
       <c r="E54" t="n">
-        <v>572.9</v>
+        <v>576.9</v>
       </c>
       <c r="F54" t="n">
-        <v>574.5</v>
+        <v>579</v>
       </c>
       <c r="G54" t="n">
-        <v>567.5</v>
+        <v>572</v>
       </c>
     </row>
     <row r="55">
@@ -1796,23 +1796,23 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>03-04-2024 00:00:00</t>
+          <t>04-04-2024 00:00:00</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4829568</v>
+        <v>3924251</v>
       </c>
       <c r="D55" t="n">
-        <v>573.1</v>
+        <v>577.75</v>
       </c>
       <c r="E55" t="n">
-        <v>576.9</v>
+        <v>578.05</v>
       </c>
       <c r="F55" t="n">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="G55" t="n">
-        <v>572</v>
+        <v>575.65</v>
       </c>
     </row>
     <row r="56">
@@ -1821,23 +1821,23 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>04-04-2024 00:00:00</t>
+          <t>05-04-2024 00:00:00</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3924251</v>
+        <v>3300134</v>
       </c>
       <c r="D56" t="n">
-        <v>577.75</v>
+        <v>578.85</v>
       </c>
       <c r="E56" t="n">
-        <v>578.05</v>
+        <v>576.1</v>
       </c>
       <c r="F56" t="n">
-        <v>580</v>
+        <v>579.65</v>
       </c>
       <c r="G56" t="n">
-        <v>575.65</v>
+        <v>574</v>
       </c>
     </row>
     <row r="57">
@@ -1846,23 +1846,23 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>05-04-2024 00:00:00</t>
+          <t>08-04-2024 00:00:00</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3300134</v>
+        <v>3298221</v>
       </c>
       <c r="D57" t="n">
-        <v>578.85</v>
+        <v>576.3</v>
       </c>
       <c r="E57" t="n">
-        <v>576.1</v>
+        <v>574.5</v>
       </c>
       <c r="F57" t="n">
-        <v>579.65</v>
+        <v>579.75</v>
       </c>
       <c r="G57" t="n">
-        <v>574</v>
+        <v>571.55</v>
       </c>
     </row>
     <row r="58">
@@ -1871,23 +1871,23 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>08-04-2024 00:00:00</t>
+          <t>09-04-2024 00:00:00</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3298221</v>
+        <v>4663495</v>
       </c>
       <c r="D58" t="n">
-        <v>576.3</v>
+        <v>574.5</v>
       </c>
       <c r="E58" t="n">
-        <v>574.5</v>
+        <v>568.4</v>
       </c>
       <c r="F58" t="n">
-        <v>579.75</v>
+        <v>576.2</v>
       </c>
       <c r="G58" t="n">
-        <v>571.55</v>
+        <v>565.75</v>
       </c>
     </row>
     <row r="59">
@@ -1896,23 +1896,23 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>09-04-2024 00:00:00</t>
+          <t>10-04-2024 00:00:00</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4663495</v>
+        <v>2487296</v>
       </c>
       <c r="D59" t="n">
+        <v>568.5</v>
+      </c>
+      <c r="E59" t="n">
+        <v>573.2</v>
+      </c>
+      <c r="F59" t="n">
         <v>574.5</v>
       </c>
-      <c r="E59" t="n">
-        <v>568.4</v>
-      </c>
-      <c r="F59" t="n">
-        <v>576.2</v>
-      </c>
       <c r="G59" t="n">
-        <v>565.75</v>
+        <v>565.6</v>
       </c>
     </row>
     <row r="60">
@@ -1921,23 +1921,23 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>10-04-2024 00:00:00</t>
+          <t>11-04-2024 00:00:00</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2487296</v>
+        <v>3772650</v>
       </c>
       <c r="D60" t="n">
-        <v>568.5</v>
+        <v>573.2</v>
       </c>
       <c r="E60" t="n">
+        <v>575.25</v>
+      </c>
+      <c r="F60" t="n">
+        <v>579</v>
+      </c>
+      <c r="G60" t="n">
         <v>573.2</v>
-      </c>
-      <c r="F60" t="n">
-        <v>574.5</v>
-      </c>
-      <c r="G60" t="n">
-        <v>565.6</v>
       </c>
     </row>
     <row r="61">
@@ -1946,23 +1946,23 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>11-04-2024 00:00:00</t>
+          <t>12-04-2024 00:00:00</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3772650</v>
+        <v>3152068</v>
       </c>
       <c r="D61" t="n">
-        <v>573.2</v>
+        <v>576</v>
       </c>
       <c r="E61" t="n">
-        <v>575.25</v>
+        <v>576.15</v>
       </c>
       <c r="F61" t="n">
-        <v>579</v>
+        <v>579.5</v>
       </c>
       <c r="G61" t="n">
-        <v>573.2</v>
+        <v>575.9</v>
       </c>
     </row>
     <row r="62">
@@ -1971,23 +1971,23 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>12-04-2024 00:00:00</t>
+          <t>15-04-2024 00:00:00</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3152068</v>
+        <v>7079255</v>
       </c>
       <c r="D62" t="n">
-        <v>576</v>
+        <v>578.95</v>
       </c>
       <c r="E62" t="n">
-        <v>576.15</v>
+        <v>589.75</v>
       </c>
       <c r="F62" t="n">
-        <v>579.5</v>
+        <v>589.85</v>
       </c>
       <c r="G62" t="n">
-        <v>575.9</v>
+        <v>578.1</v>
       </c>
     </row>
     <row r="63">
@@ -1996,23 +1996,23 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>15-04-2024 00:00:00</t>
+          <t>16-04-2024 00:00:00</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>7079255</v>
+        <v>5290388</v>
       </c>
       <c r="D63" t="n">
-        <v>578.95</v>
+        <v>590</v>
       </c>
       <c r="E63" t="n">
-        <v>589.75</v>
+        <v>589.1</v>
       </c>
       <c r="F63" t="n">
-        <v>589.85</v>
+        <v>592.5</v>
       </c>
       <c r="G63" t="n">
-        <v>578.1</v>
+        <v>585.7</v>
       </c>
     </row>
     <row r="64">
@@ -2021,23 +2021,23 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>16-04-2024 00:00:00</t>
+          <t>17-04-2024 00:00:00</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5290388</v>
+        <v>3814643</v>
       </c>
       <c r="D64" t="n">
-        <v>590</v>
+        <v>589.15</v>
       </c>
       <c r="E64" t="n">
-        <v>589.1</v>
+        <v>584.35</v>
       </c>
       <c r="F64" t="n">
-        <v>592.5</v>
+        <v>590.75</v>
       </c>
       <c r="G64" t="n">
-        <v>585.7</v>
+        <v>581.3</v>
       </c>
     </row>
     <row r="65">
@@ -2046,23 +2046,23 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>17-04-2024 00:00:00</t>
+          <t>18-04-2024 00:00:00</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3814643</v>
+        <v>3808318</v>
       </c>
       <c r="D65" t="n">
-        <v>589.15</v>
+        <v>583.85</v>
       </c>
       <c r="E65" t="n">
-        <v>584.35</v>
+        <v>579.15</v>
       </c>
       <c r="F65" t="n">
-        <v>590.75</v>
+        <v>585.85</v>
       </c>
       <c r="G65" t="n">
-        <v>581.3</v>
+        <v>576.55</v>
       </c>
     </row>
     <row r="66">
@@ -2071,23 +2071,23 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>18-04-2024 00:00:00</t>
+          <t>19-04-2024 00:00:00</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3808318</v>
+        <v>3507875</v>
       </c>
       <c r="D66" t="n">
-        <v>583.85</v>
+        <v>582</v>
       </c>
       <c r="E66" t="n">
-        <v>579.15</v>
+        <v>585.35</v>
       </c>
       <c r="F66" t="n">
-        <v>585.85</v>
+        <v>588.4</v>
       </c>
       <c r="G66" t="n">
-        <v>576.55</v>
+        <v>578.05</v>
       </c>
     </row>
     <row r="67">
@@ -2096,23 +2096,23 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>19-04-2024 00:00:00</t>
+          <t>22-04-2024 00:00:00</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3507875</v>
+        <v>3190989</v>
       </c>
       <c r="D67" t="n">
-        <v>582</v>
+        <v>586.7</v>
       </c>
       <c r="E67" t="n">
-        <v>585.35</v>
+        <v>583.15</v>
       </c>
       <c r="F67" t="n">
-        <v>588.4</v>
+        <v>589.4</v>
       </c>
       <c r="G67" t="n">
-        <v>578.05</v>
+        <v>581</v>
       </c>
     </row>
     <row r="68">
@@ -2121,23 +2121,23 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>22-04-2024 00:00:00</t>
+          <t>23-04-2024 00:00:00</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3190989</v>
+        <v>3699539</v>
       </c>
       <c r="D68" t="n">
-        <v>586.7</v>
+        <v>583.85</v>
       </c>
       <c r="E68" t="n">
-        <v>583.15</v>
+        <v>580.85</v>
       </c>
       <c r="F68" t="n">
-        <v>589.4</v>
+        <v>589</v>
       </c>
       <c r="G68" t="n">
-        <v>581</v>
+        <v>580.25</v>
       </c>
     </row>
     <row r="69">
@@ -2146,23 +2146,23 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>23-04-2024 00:00:00</t>
+          <t>24-04-2024 00:00:00</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3699539</v>
+        <v>2968087</v>
       </c>
       <c r="D69" t="n">
-        <v>583.85</v>
+        <v>582.35</v>
       </c>
       <c r="E69" t="n">
-        <v>580.85</v>
+        <v>576.3</v>
       </c>
       <c r="F69" t="n">
-        <v>589</v>
+        <v>583.4</v>
       </c>
       <c r="G69" t="n">
-        <v>580.25</v>
+        <v>572</v>
       </c>
     </row>
     <row r="70">
@@ -2171,23 +2171,23 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>24-04-2024 00:00:00</t>
+          <t>25-04-2024 00:00:00</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2968087</v>
+        <v>2269626</v>
       </c>
       <c r="D70" t="n">
-        <v>582.35</v>
+        <v>577</v>
       </c>
       <c r="E70" t="n">
-        <v>576.3</v>
+        <v>579.8</v>
       </c>
       <c r="F70" t="n">
-        <v>583.4</v>
+        <v>581.25</v>
       </c>
       <c r="G70" t="n">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="71">
@@ -2196,23 +2196,23 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>25-04-2024 00:00:00</t>
+          <t>26-04-2024 00:00:00</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2269626</v>
+        <v>2194810</v>
       </c>
       <c r="D71" t="n">
-        <v>577</v>
+        <v>579.95</v>
       </c>
       <c r="E71" t="n">
-        <v>579.8</v>
+        <v>581.3</v>
       </c>
       <c r="F71" t="n">
-        <v>581.25</v>
+        <v>584.9</v>
       </c>
       <c r="G71" t="n">
-        <v>573</v>
+        <v>578.6</v>
       </c>
     </row>
     <row r="72">
@@ -2221,23 +2221,23 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>26-04-2024 00:00:00</t>
+          <t>27-04-2024 00:00:00</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2194810</v>
+        <v>1379864</v>
       </c>
       <c r="D72" t="n">
-        <v>579.95</v>
+        <v>581</v>
       </c>
       <c r="E72" t="n">
-        <v>581.3</v>
+        <v>581.2</v>
       </c>
       <c r="F72" t="n">
-        <v>584.9</v>
+        <v>584.5</v>
       </c>
       <c r="G72" t="n">
-        <v>578.6</v>
+        <v>581</v>
       </c>
     </row>
     <row r="73">
@@ -2246,23 +2246,23 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>27-04-2024 00:00:00</t>
+          <t>29-04-2024 00:00:00</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>1379864</v>
+        <v>882950</v>
       </c>
       <c r="D73" t="n">
-        <v>581</v>
+        <v>581.8</v>
       </c>
       <c r="E73" t="n">
-        <v>581.2</v>
+        <v>583.15</v>
       </c>
       <c r="F73" t="n">
-        <v>584.5</v>
+        <v>583.95</v>
       </c>
       <c r="G73" t="n">
-        <v>581</v>
+        <v>581.35</v>
       </c>
     </row>
     <row r="74">
@@ -2271,23 +2271,23 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>29-04-2024 00:00:00</t>
+          <t>30-04-2024 00:00:00</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>882950</v>
+        <v>632716</v>
       </c>
       <c r="D74" t="n">
-        <v>581.8</v>
+        <v>583.15</v>
       </c>
       <c r="E74" t="n">
-        <v>583.15</v>
+        <v>582</v>
       </c>
       <c r="F74" t="n">
-        <v>583.95</v>
+        <v>583.65</v>
       </c>
       <c r="G74" t="n">
-        <v>581.35</v>
+        <v>581.3</v>
       </c>
     </row>
     <row r="75">
@@ -2296,23 +2296,23 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>30-04-2024 00:00:00</t>
+          <t>02-05-2024 00:00:00</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>632716</v>
+        <v>2169820</v>
       </c>
       <c r="D75" t="n">
-        <v>583.15</v>
+        <v>581.4</v>
       </c>
       <c r="E75" t="n">
-        <v>582</v>
+        <v>582.3</v>
       </c>
       <c r="F75" t="n">
-        <v>583.65</v>
+        <v>587</v>
       </c>
       <c r="G75" t="n">
-        <v>581.3</v>
+        <v>578</v>
       </c>
     </row>
     <row r="76">
@@ -2321,23 +2321,23 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>02-05-2024 00:00:00</t>
+          <t>03-05-2024 00:00:00</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2169820</v>
+        <v>2302837</v>
       </c>
       <c r="D76" t="n">
-        <v>581.4</v>
+        <v>582.75</v>
       </c>
       <c r="E76" t="n">
         <v>582.3</v>
       </c>
       <c r="F76" t="n">
-        <v>587</v>
+        <v>586.4</v>
       </c>
       <c r="G76" t="n">
-        <v>578</v>
+        <v>582</v>
       </c>
     </row>
     <row r="77">
@@ -2346,23 +2346,23 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>03-05-2024 00:00:00</t>
+          <t>06-05-2024 00:00:00</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2302837</v>
+        <v>2443510</v>
       </c>
       <c r="D77" t="n">
-        <v>582.75</v>
+        <v>582</v>
       </c>
       <c r="E77" t="n">
-        <v>582.3</v>
+        <v>579.05</v>
       </c>
       <c r="F77" t="n">
-        <v>586.4</v>
+        <v>586.15</v>
       </c>
       <c r="G77" t="n">
-        <v>582</v>
+        <v>578.65</v>
       </c>
     </row>
     <row r="78">
@@ -2371,23 +2371,23 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>06-05-2024 00:00:00</t>
+          <t>07-05-2024 00:00:00</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2443510</v>
+        <v>1688537</v>
       </c>
       <c r="D78" t="n">
-        <v>582</v>
+        <v>579.15</v>
       </c>
       <c r="E78" t="n">
-        <v>579.05</v>
+        <v>579.95</v>
       </c>
       <c r="F78" t="n">
-        <v>586.15</v>
+        <v>584.35</v>
       </c>
       <c r="G78" t="n">
-        <v>578.65</v>
+        <v>579.15</v>
       </c>
     </row>
     <row r="79">
@@ -2396,23 +2396,23 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>07-05-2024 00:00:00</t>
+          <t>08-05-2024 00:00:00</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>1688537</v>
+        <v>1292162</v>
       </c>
       <c r="D79" t="n">
-        <v>579.15</v>
+        <v>580.3</v>
       </c>
       <c r="E79" t="n">
-        <v>579.95</v>
+        <v>578.5</v>
       </c>
       <c r="F79" t="n">
-        <v>584.35</v>
+        <v>582</v>
       </c>
       <c r="G79" t="n">
-        <v>579.15</v>
+        <v>578.2</v>
       </c>
     </row>
     <row r="80">
@@ -2421,23 +2421,23 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>08-05-2024 00:00:00</t>
+          <t>10-05-2024 00:00:00</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>1292162</v>
+        <v>1159220</v>
       </c>
       <c r="D80" t="n">
-        <v>580.3</v>
+        <v>579</v>
       </c>
       <c r="E80" t="n">
-        <v>578.5</v>
+        <v>579.4</v>
       </c>
       <c r="F80" t="n">
-        <v>582</v>
+        <v>582.5</v>
       </c>
       <c r="G80" t="n">
-        <v>578.2</v>
+        <v>578.55</v>
       </c>
     </row>
     <row r="81">
@@ -2446,23 +2446,23 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>10-05-2024 00:00:00</t>
+          <t>13-05-2024 00:00:00</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>1159220</v>
+        <v>4761120</v>
       </c>
       <c r="D81" t="n">
+        <v>580.25</v>
+      </c>
+      <c r="E81" t="n">
+        <v>589.45</v>
+      </c>
+      <c r="F81" t="n">
+        <v>590</v>
+      </c>
+      <c r="G81" t="n">
         <v>579</v>
-      </c>
-      <c r="E81" t="n">
-        <v>579.4</v>
-      </c>
-      <c r="F81" t="n">
-        <v>582.5</v>
-      </c>
-      <c r="G81" t="n">
-        <v>578.55</v>
       </c>
     </row>
     <row r="82">
@@ -2471,23 +2471,23 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>13-05-2024 00:00:00</t>
+          <t>14-05-2024 00:00:00</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4761120</v>
+        <v>4215772</v>
       </c>
       <c r="D82" t="n">
-        <v>580.25</v>
+        <v>590</v>
       </c>
       <c r="E82" t="n">
-        <v>589.45</v>
+        <v>589.8</v>
       </c>
       <c r="F82" t="n">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="G82" t="n">
-        <v>579</v>
+        <v>588.3</v>
       </c>
     </row>
     <row r="83">
@@ -2496,23 +2496,23 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>14-05-2024 00:00:00</t>
+          <t>15-05-2024 00:00:00</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4215772</v>
+        <v>7144102</v>
       </c>
       <c r="D83" t="n">
-        <v>590</v>
+        <v>590.75</v>
       </c>
       <c r="E83" t="n">
-        <v>589.8</v>
+        <v>599.2</v>
       </c>
       <c r="F83" t="n">
-        <v>594</v>
+        <v>599.3</v>
       </c>
       <c r="G83" t="n">
-        <v>588.3</v>
+        <v>589.3</v>
       </c>
     </row>
     <row r="84">
@@ -2521,23 +2521,23 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>15-05-2024 00:00:00</t>
+          <t>16-05-2024 00:00:00</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>7144102</v>
+        <v>4645547</v>
       </c>
       <c r="D84" t="n">
-        <v>590.75</v>
+        <v>599.5</v>
       </c>
       <c r="E84" t="n">
-        <v>599.2</v>
+        <v>592.6</v>
       </c>
       <c r="F84" t="n">
-        <v>599.3</v>
+        <v>600</v>
       </c>
       <c r="G84" t="n">
-        <v>589.3</v>
+        <v>590.05</v>
       </c>
     </row>
     <row r="85">
@@ -2546,23 +2546,23 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>16-05-2024 00:00:00</t>
+          <t>17-05-2024 00:00:00</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4645547</v>
+        <v>3460602</v>
       </c>
       <c r="D85" t="n">
-        <v>599.5</v>
+        <v>592.8</v>
       </c>
       <c r="E85" t="n">
-        <v>592.6</v>
+        <v>591.95</v>
       </c>
       <c r="F85" t="n">
-        <v>600</v>
+        <v>596.7</v>
       </c>
       <c r="G85" t="n">
-        <v>590.05</v>
+        <v>590.5</v>
       </c>
     </row>
     <row r="86">
@@ -2571,23 +2571,23 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>17-05-2024 00:00:00</t>
+          <t>20-05-2024 00:00:00</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3460602</v>
+        <v>4649647</v>
       </c>
       <c r="D86" t="n">
-        <v>592.8</v>
+        <v>594</v>
       </c>
       <c r="E86" t="n">
-        <v>591.95</v>
+        <v>591.9</v>
       </c>
       <c r="F86" t="n">
-        <v>596.7</v>
+        <v>596.35</v>
       </c>
       <c r="G86" t="n">
-        <v>590.5</v>
+        <v>580.1</v>
       </c>
     </row>
     <row r="87">
@@ -2596,23 +2596,23 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>20-05-2024 00:00:00</t>
+          <t>21-05-2024 00:00:00</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4649647</v>
+        <v>4313358</v>
       </c>
       <c r="D87" t="n">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="E87" t="n">
-        <v>591.9</v>
+        <v>594.6</v>
       </c>
       <c r="F87" t="n">
-        <v>596.35</v>
+        <v>597.5</v>
       </c>
       <c r="G87" t="n">
-        <v>580.1</v>
+        <v>586.6</v>
       </c>
     </row>
     <row r="88">
@@ -2621,23 +2621,23 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>21-05-2024 00:00:00</t>
+          <t>22-05-2024 00:00:00</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4313358</v>
+        <v>3748577</v>
       </c>
       <c r="D88" t="n">
-        <v>592</v>
+        <v>593.9</v>
       </c>
       <c r="E88" t="n">
-        <v>594.6</v>
+        <v>596.85</v>
       </c>
       <c r="F88" t="n">
-        <v>597.5</v>
+        <v>597.25</v>
       </c>
       <c r="G88" t="n">
-        <v>586.6</v>
+        <v>591.75</v>
       </c>
     </row>
     <row r="89">
@@ -2646,23 +2646,23 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>22-05-2024 00:00:00</t>
+          <t>23-05-2024 00:00:00</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3748577</v>
+        <v>3555763</v>
       </c>
       <c r="D89" t="n">
-        <v>593.9</v>
+        <v>595.7</v>
       </c>
       <c r="E89" t="n">
-        <v>596.85</v>
+        <v>593.15</v>
       </c>
       <c r="F89" t="n">
-        <v>597.25</v>
+        <v>596.65</v>
       </c>
       <c r="G89" t="n">
-        <v>591.75</v>
+        <v>590</v>
       </c>
     </row>
     <row r="90">
@@ -2671,23 +2671,23 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>23-05-2024 00:00:00</t>
+          <t>24-05-2024 00:00:00</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3555763</v>
+        <v>3990201</v>
       </c>
       <c r="D90" t="n">
-        <v>595.7</v>
+        <v>593.6</v>
       </c>
       <c r="E90" t="n">
-        <v>593.15</v>
+        <v>585.1</v>
       </c>
       <c r="F90" t="n">
-        <v>596.65</v>
+        <v>594.45</v>
       </c>
       <c r="G90" t="n">
-        <v>590</v>
+        <v>582.3</v>
       </c>
     </row>
     <row r="91">
@@ -2696,23 +2696,23 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>24-05-2024 00:00:00</t>
+          <t>27-05-2024 00:00:00</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3990201</v>
+        <v>7407211</v>
       </c>
       <c r="D91" t="n">
-        <v>593.6</v>
+        <v>585</v>
       </c>
       <c r="E91" t="n">
-        <v>585.1</v>
+        <v>578.25</v>
       </c>
       <c r="F91" t="n">
-        <v>594.45</v>
+        <v>588</v>
       </c>
       <c r="G91" t="n">
-        <v>582.3</v>
+        <v>568.4</v>
       </c>
     </row>
     <row r="92">
@@ -2721,23 +2721,23 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>27-05-2024 00:00:00</t>
+          <t>28-05-2024 00:00:00</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>7407211</v>
+        <v>4392067</v>
       </c>
       <c r="D92" t="n">
+        <v>578.8</v>
+      </c>
+      <c r="E92" t="n">
+        <v>573</v>
+      </c>
+      <c r="F92" t="n">
         <v>585</v>
       </c>
-      <c r="E92" t="n">
-        <v>578.25</v>
-      </c>
-      <c r="F92" t="n">
-        <v>588</v>
-      </c>
       <c r="G92" t="n">
-        <v>568.4</v>
+        <v>567</v>
       </c>
     </row>
     <row r="93">
@@ -2746,23 +2746,23 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>28-05-2024 00:00:00</t>
+          <t>29-05-2024 00:00:00</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4392067</v>
+        <v>2622447</v>
       </c>
       <c r="D93" t="n">
-        <v>578.8</v>
+        <v>573.95</v>
       </c>
       <c r="E93" t="n">
-        <v>573</v>
+        <v>575.65</v>
       </c>
       <c r="F93" t="n">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="G93" t="n">
-        <v>567</v>
+        <v>571</v>
       </c>
     </row>
     <row r="94">
@@ -2771,23 +2771,23 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>29-05-2024 00:00:00</t>
+          <t>30-05-2024 00:00:00</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2622447</v>
+        <v>5592247</v>
       </c>
       <c r="D94" t="n">
-        <v>573.95</v>
+        <v>577.65</v>
       </c>
       <c r="E94" t="n">
-        <v>575.65</v>
+        <v>566.4</v>
       </c>
       <c r="F94" t="n">
-        <v>580</v>
+        <v>581.15</v>
       </c>
       <c r="G94" t="n">
-        <v>571</v>
+        <v>553.95</v>
       </c>
     </row>
     <row r="95">
@@ -2796,23 +2796,23 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>30-05-2024 00:00:00</t>
+          <t>31-05-2024 00:00:00</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5592247</v>
+        <v>6164219</v>
       </c>
       <c r="D95" t="n">
-        <v>577.65</v>
+        <v>570</v>
       </c>
       <c r="E95" t="n">
-        <v>566.4</v>
+        <v>556.65</v>
       </c>
       <c r="F95" t="n">
-        <v>581.15</v>
+        <v>572</v>
       </c>
       <c r="G95" t="n">
-        <v>553.95</v>
+        <v>555</v>
       </c>
     </row>
     <row r="96">
@@ -2821,23 +2821,23 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>31-05-2024 00:00:00</t>
+          <t>03-06-2024 00:00:00</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>6164219</v>
+        <v>7578912</v>
       </c>
       <c r="D96" t="n">
-        <v>570</v>
+        <v>557</v>
       </c>
       <c r="E96" t="n">
-        <v>556.65</v>
+        <v>562.95</v>
       </c>
       <c r="F96" t="n">
-        <v>572</v>
+        <v>564.7</v>
       </c>
       <c r="G96" t="n">
-        <v>555</v>
+        <v>542.5</v>
       </c>
     </row>
     <row r="97">
@@ -2846,23 +2846,23 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>03-06-2024 00:00:00</t>
+          <t>04-06-2024 00:00:00</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>7578912</v>
+        <v>5282965</v>
       </c>
       <c r="D97" t="n">
-        <v>557</v>
+        <v>563.1</v>
       </c>
       <c r="E97" t="n">
-        <v>562.95</v>
+        <v>568.95</v>
       </c>
       <c r="F97" t="n">
-        <v>564.7</v>
+        <v>571</v>
       </c>
       <c r="G97" t="n">
-        <v>542.5</v>
+        <v>555.55</v>
       </c>
     </row>
     <row r="98">
@@ -2871,23 +2871,23 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>04-06-2024 00:00:00</t>
+          <t>05-06-2024 00:00:00</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5282965</v>
+        <v>5054761</v>
       </c>
       <c r="D98" t="n">
-        <v>563.1</v>
+        <v>570.05</v>
       </c>
       <c r="E98" t="n">
-        <v>568.95</v>
+        <v>562.2</v>
       </c>
       <c r="F98" t="n">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="G98" t="n">
-        <v>555.55</v>
+        <v>559.65</v>
       </c>
     </row>
     <row r="99">
@@ -2896,23 +2896,23 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>05-06-2024 00:00:00</t>
+          <t>06-06-2024 00:00:00</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5054761</v>
+        <v>2240679</v>
       </c>
       <c r="D99" t="n">
-        <v>570.05</v>
+        <v>563.9</v>
       </c>
       <c r="E99" t="n">
-        <v>562.2</v>
+        <v>566.3</v>
       </c>
       <c r="F99" t="n">
-        <v>575</v>
+        <v>569.8</v>
       </c>
       <c r="G99" t="n">
-        <v>559.65</v>
+        <v>561.25</v>
       </c>
     </row>
     <row r="100">
@@ -2921,23 +2921,23 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>06-06-2024 00:00:00</t>
+          <t>07-06-2024 00:00:00</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2240679</v>
+        <v>3339099</v>
       </c>
       <c r="D100" t="n">
-        <v>563.9</v>
+        <v>567.3</v>
       </c>
       <c r="E100" t="n">
-        <v>566.3</v>
+        <v>571.65</v>
       </c>
       <c r="F100" t="n">
-        <v>569.8</v>
+        <v>575.95</v>
       </c>
       <c r="G100" t="n">
-        <v>561.25</v>
+        <v>565.3</v>
       </c>
     </row>
     <row r="101">
@@ -2946,23 +2946,23 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>07-06-2024 00:00:00</t>
+          <t>10-06-2024 00:00:00</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3339099</v>
+        <v>401046</v>
       </c>
       <c r="D101" t="n">
-        <v>567.3</v>
+        <v>573.9</v>
       </c>
       <c r="E101" t="n">
-        <v>571.65</v>
+        <v>573.35</v>
       </c>
       <c r="F101" t="n">
-        <v>575.95</v>
+        <v>575.7</v>
       </c>
       <c r="G101" t="n">
-        <v>565.3</v>
+        <v>568.8</v>
       </c>
     </row>
   </sheetData>
